--- a/data-raw/Estimates-of-constituency-level-EU-referendum-result.xlsx
+++ b/data-raw/Estimates-of-constituency-level-EU-referendum-result.xlsx
@@ -3925,12 +3925,6 @@
     <t>West Tyrone</t>
   </si>
   <si>
-    <t>Fermanagh &amp; South Tyrone</t>
-  </si>
-  <si>
-    <t>Newry &amp; Armagh</t>
-  </si>
-  <si>
     <t>N06000001</t>
   </si>
   <si>
@@ -3995,6 +3989,12 @@
   </si>
   <si>
     <t>UUP</t>
+  </si>
+  <si>
+    <t>Fermanagh and South Tyrone</t>
+  </si>
+  <si>
+    <t>Newry and Armagh</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4003,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -4046,7 +4046,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4366,7 +4366,7 @@
   <dimension ref="A1:G651"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="B635" sqref="B635"/>
+      <selection activeCell="B640" sqref="B640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17018,13 +17018,13 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B634" s="5" t="s">
         <v>1282</v>
       </c>
       <c r="C634" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>1264</v>
@@ -17035,13 +17035,13 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B635" s="5" t="s">
         <v>1283</v>
       </c>
       <c r="C635" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>1264</v>
@@ -17052,13 +17052,13 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B636" s="5" t="s">
         <v>1284</v>
       </c>
       <c r="C636" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>1264</v>
@@ -17069,13 +17069,13 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B637" s="5" t="s">
         <v>1285</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>1264</v>
@@ -17086,13 +17086,13 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B638" s="5" t="s">
         <v>1286</v>
       </c>
       <c r="C638" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>1264</v>
@@ -17103,13 +17103,13 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B639" s="5" t="s">
         <v>1287</v>
       </c>
       <c r="C639" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>1264</v>
@@ -17120,13 +17120,13 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B640" s="5" t="s">
-        <v>1298</v>
+        <v>1320</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>1264</v>
@@ -17137,13 +17137,13 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B641" s="5" t="s">
         <v>1288</v>
       </c>
       <c r="C641" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>1264</v>
@@ -17154,13 +17154,13 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B642" s="5" t="s">
         <v>1289</v>
       </c>
       <c r="C642" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>1264</v>
@@ -17171,13 +17171,13 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B643" s="5" t="s">
         <v>1290</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>1264</v>
@@ -17188,13 +17188,13 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>1264</v>
@@ -17205,13 +17205,13 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B645" s="5" t="s">
         <v>1291</v>
       </c>
       <c r="C645" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>1264</v>
@@ -17222,7 +17222,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B646" s="5" t="s">
         <v>1292</v>
@@ -17239,13 +17239,13 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B647" s="5" t="s">
         <v>1293</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>1264</v>
@@ -17256,13 +17256,13 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B648" s="5" t="s">
         <v>1294</v>
       </c>
       <c r="C648" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>1264</v>
@@ -17273,13 +17273,13 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B649" s="5" t="s">
         <v>1295</v>
       </c>
       <c r="C649" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>1264</v>
@@ -17290,13 +17290,13 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B650" s="5" t="s">
         <v>1296</v>
       </c>
       <c r="C650" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>1264</v>
@@ -17307,13 +17307,13 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B651" s="5" t="s">
         <v>1297</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>1264</v>

--- a/data-raw/Estimates-of-constituency-level-EU-referendum-result.xlsx
+++ b/data-raw/Estimates-of-constituency-level-EU-referendum-result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eodell\Documents\GitHub\parlitools\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/Code/packages/parlitools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D664D409-DCD2-CD48-99FA-2D0E2FFBB423}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11205"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="25200" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="1283">
   <si>
     <t>gss_code</t>
   </si>
@@ -3865,126 +3866,6 @@
   </si>
   <si>
     <t>Boston and Skegness</t>
-  </si>
-  <si>
-    <t>N06000001</t>
-  </si>
-  <si>
-    <t>Belfast East</t>
-  </si>
-  <si>
-    <t>DUP</t>
-  </si>
-  <si>
-    <t>N06000002</t>
-  </si>
-  <si>
-    <t>Belfast North</t>
-  </si>
-  <si>
-    <t>N06000003</t>
-  </si>
-  <si>
-    <t>Belfast South</t>
-  </si>
-  <si>
-    <t>SDLP</t>
-  </si>
-  <si>
-    <t>N06000004</t>
-  </si>
-  <si>
-    <t>Belfast West</t>
-  </si>
-  <si>
-    <t>Sinn Fein</t>
-  </si>
-  <si>
-    <t>N06000005</t>
-  </si>
-  <si>
-    <t>East Antrim</t>
-  </si>
-  <si>
-    <t>N06000006</t>
-  </si>
-  <si>
-    <t>East Londonderry</t>
-  </si>
-  <si>
-    <t>N06000007</t>
-  </si>
-  <si>
-    <t>Fermanagh &amp; South Tyrone</t>
-  </si>
-  <si>
-    <t>UUP</t>
-  </si>
-  <si>
-    <t>N06000008</t>
-  </si>
-  <si>
-    <t>Foyle</t>
-  </si>
-  <si>
-    <t>N06000009</t>
-  </si>
-  <si>
-    <t>Lagan Valley</t>
-  </si>
-  <si>
-    <t>N06000010</t>
-  </si>
-  <si>
-    <t>Mid Ulster</t>
-  </si>
-  <si>
-    <t>N06000011</t>
-  </si>
-  <si>
-    <t>Newry &amp; Armagh</t>
-  </si>
-  <si>
-    <t>N06000012</t>
-  </si>
-  <si>
-    <t>North Antrim</t>
-  </si>
-  <si>
-    <t>N06000013</t>
-  </si>
-  <si>
-    <t>North Down</t>
-  </si>
-  <si>
-    <t>N06000014</t>
-  </si>
-  <si>
-    <t>South Antrim</t>
-  </si>
-  <si>
-    <t>N06000015</t>
-  </si>
-  <si>
-    <t>South Down</t>
-  </si>
-  <si>
-    <t>N06000016</t>
-  </si>
-  <si>
-    <t>Strangford</t>
-  </si>
-  <si>
-    <t>N06000017</t>
-  </si>
-  <si>
-    <t>Upper Bann</t>
-  </si>
-  <si>
-    <t>N06000018</t>
-  </si>
-  <si>
-    <t>West Tyrone</t>
   </si>
   <si>
     <t>Ynys Môn</t>
@@ -3993,7 +3874,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4810,20 +4691,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G651"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="D640" sqref="D640"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="C640" sqref="C640"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4846,7 +4727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4869,7 +4750,7 @@
         <v>6.5016815078698</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4892,7 +4773,7 @@
         <v>5.4772303300000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4915,7 +4796,7 @@
         <v>5.2852186437148498</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4938,7 +4819,7 @@
         <v>5.02357444</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +4842,7 @@
         <v>4.2503602999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4984,7 +4865,7 @@
         <v>4.1341588299999898</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5007,7 +4888,7 @@
         <v>3.8003704729057199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -5030,7 +4911,7 @@
         <v>3.6970566171446801</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5053,7 +4934,7 @@
         <v>3.6685940779537298</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5076,7 +4957,7 @@
         <v>3.5431303399999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -5099,7 +4980,7 @@
         <v>3.2629691999999899</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +5003,7 @@
         <v>3.1555144300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5145,7 +5026,7 @@
         <v>2.9884172200000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -5168,7 +5049,7 @@
         <v>2.8771669996211302</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -5191,7 +5072,7 @@
         <v>2.6120109231447302</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -5214,7 +5095,7 @@
         <v>2.3809756399999902</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5237,7 +5118,7 @@
         <v>2.3239306556277799</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -5260,7 +5141,7 @@
         <v>2.3231119950667098</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -5283,7 +5164,7 @@
         <v>2.2047453969450199</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -5306,7 +5187,7 @@
         <v>2.1461058676426199</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -5329,7 +5210,7 @@
         <v>1.9074834829609699</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5352,7 +5233,7 @@
         <v>1.54401882978914</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -5375,7 +5256,7 @@
         <v>1.51935170999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -5398,7 +5279,7 @@
         <v>1.50634927999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -5421,7 +5302,7 @@
         <v>1.5059047511962</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -5444,7 +5325,7 @@
         <v>1.4442433299999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5467,7 +5348,7 @@
         <v>1.42069914437098</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5490,7 +5371,7 @@
         <v>1.34193770820353</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -5513,7 +5394,7 @@
         <v>1.33131021673582</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -5536,7 +5417,7 @@
         <v>1.2530970649019</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -5559,7 +5440,7 @@
         <v>1.14922013848866</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -5582,7 +5463,7 @@
         <v>0.99888049000000301</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -5605,7 +5486,7 @@
         <v>0.97479241999999799</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -5628,7 +5509,7 @@
         <v>0.955525944252133</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -5651,7 +5532,7 @@
         <v>0.92241918857319805</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -5674,7 +5555,7 @@
         <v>0.88322038069771303</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -5697,7 +5578,7 @@
         <v>0.87811608999999702</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -5720,7 +5601,7 @@
         <v>0.792343548631668</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -5743,7 +5624,7 @@
         <v>0.78420579570758198</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -5766,7 +5647,7 @@
         <v>0.78377356901524398</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -5789,7 +5670,7 @@
         <v>0.76895662063884895</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -5812,7 +5693,7 @@
         <v>0.74711753762431399</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -5835,7 +5716,7 @@
         <v>0.729466540000001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -5858,7 +5739,7 @@
         <v>0.72248508588976801</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -5881,7 +5762,7 @@
         <v>0.70863478999999496</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -5904,7 +5785,7 @@
         <v>0.627994801619702</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -5927,7 +5808,7 @@
         <v>0.58814361349590605</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -5950,7 +5831,7 @@
         <v>0.58289147837807198</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -5973,7 +5854,7 @@
         <v>0.58285836374893896</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -5996,7 +5877,7 @@
         <v>0.50791600281726501</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -6019,7 +5900,7 @@
         <v>0.30630916000000102</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6042,7 +5923,7 @@
         <v>0.27411820764601202</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -6065,7 +5946,7 @@
         <v>0.25758411716296697</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -6088,7 +5969,7 @@
         <v>0.12833611967629699</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -6111,7 +5992,7 @@
         <v>7.5774500939951306E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -6134,7 +6015,7 @@
         <v>4.1887070656054702E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -6157,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -6180,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -6203,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -6226,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -6249,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -6272,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -6295,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -6318,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -6341,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -6364,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -6387,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -6410,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -6433,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -6456,12 +6337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>1322</v>
+        <v>1282</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -6479,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -6502,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -6525,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -6548,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -6571,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -6594,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -6617,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -6640,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -6663,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -6686,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -6709,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -6732,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -6755,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -6778,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -6801,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -6824,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -6847,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -6870,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -6893,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -6916,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -6939,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -6962,7 +6843,7 @@
         <v>6.3441409004127994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -6985,7 +6866,7 @@
         <v>9.6592732102718196E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -7008,7 +6889,7 @@
         <v>0.12702693709267801</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -7031,7 +6912,7 @@
         <v>0.132546300000003</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -7054,7 +6935,7 @@
         <v>0.15865565944530599</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -7077,7 +6958,7 @@
         <v>0.163831007193904</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -7100,7 +6981,7 @@
         <v>0.18495953000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -7123,7 +7004,7 @@
         <v>0.22476930235343401</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>210</v>
       </c>
@@ -7146,7 +7027,7 @@
         <v>0.22647315061104001</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>212</v>
       </c>
@@ -7169,7 +7050,7 @@
         <v>0.23471421831813299</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -7192,7 +7073,7 @@
         <v>0.25018351695895602</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>216</v>
       </c>
@@ -7215,7 +7096,7 @@
         <v>0.33291045863236302</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>218</v>
       </c>
@@ -7238,7 +7119,7 @@
         <v>0.456929737761191</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>220</v>
       </c>
@@ -7261,7 +7142,7 @@
         <v>0.51219641999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>222</v>
       </c>
@@ -7284,7 +7165,7 @@
         <v>0.69569657507855298</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>224</v>
       </c>
@@ -7307,7 +7188,7 @@
         <v>0.74078243488455697</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>226</v>
       </c>
@@ -7330,7 +7211,7 @@
         <v>0.762464386723261</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -7353,7 +7234,7 @@
         <v>0.93030738582444705</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -7376,7 +7257,7 @@
         <v>0.933976636237144</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -7399,7 +7280,7 @@
         <v>0.96439087686254199</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -7422,7 +7303,7 @@
         <v>1.1922289500000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>236</v>
       </c>
@@ -7445,7 +7326,7 @@
         <v>1.36656997067821</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>238</v>
       </c>
@@ -7468,7 +7349,7 @@
         <v>1.41080733294209</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>240</v>
       </c>
@@ -7491,7 +7372,7 @@
         <v>1.45444715893601</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7514,7 +7395,7 @@
         <v>1.4562315995603301</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -7537,7 +7418,7 @@
         <v>1.4606706199999999</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>246</v>
       </c>
@@ -7560,7 +7441,7 @@
         <v>1.5695104497477901</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -7583,7 +7464,7 @@
         <v>1.60077799759484</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -7606,7 +7487,7 @@
         <v>1.6376991467186199</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -7629,7 +7510,7 @@
         <v>1.69099026</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>254</v>
       </c>
@@ -7652,7 +7533,7 @@
         <v>1.7295502308697801</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -7675,7 +7556,7 @@
         <v>1.73539891889044</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>258</v>
       </c>
@@ -7698,7 +7579,7 @@
         <v>1.87276751999999</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>260</v>
       </c>
@@ -7721,7 +7602,7 @@
         <v>1.8890885991938799</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>262</v>
       </c>
@@ -7744,7 +7625,7 @@
         <v>2.0048073402902702</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>264</v>
       </c>
@@ -7767,7 +7648,7 @@
         <v>2.02130638</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>266</v>
       </c>
@@ -7790,7 +7671,7 @@
         <v>2.1717174573673601</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>268</v>
       </c>
@@ -7813,7 +7694,7 @@
         <v>2.2790295258706399</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -7836,7 +7717,7 @@
         <v>2.3528554499999998</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -7859,7 +7740,7 @@
         <v>2.4481019571574798</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>274</v>
       </c>
@@ -7882,7 +7763,7 @@
         <v>2.5233060631829498</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>276</v>
       </c>
@@ -7905,7 +7786,7 @@
         <v>2.5502787722684901</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>278</v>
       </c>
@@ -7928,7 +7809,7 @@
         <v>2.5726312</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -7951,7 +7832,7 @@
         <v>2.6542375415246799</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>282</v>
       </c>
@@ -7974,7 +7855,7 @@
         <v>2.7007406111866499</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>284</v>
       </c>
@@ -7997,7 +7878,7 @@
         <v>2.7012380221874399</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>286</v>
       </c>
@@ -8020,7 +7901,7 @@
         <v>2.7018648855852399</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -8043,7 +7924,7 @@
         <v>2.8413157199999999</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>290</v>
       </c>
@@ -8066,7 +7947,7 @@
         <v>2.9190175574578401</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -8089,7 +7970,7 @@
         <v>2.98580413</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>294</v>
       </c>
@@ -8112,7 +7993,7 @@
         <v>2.9969749399225001</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>296</v>
       </c>
@@ -8135,7 +8016,7 @@
         <v>3.0784382456088601</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -8158,7 +8039,7 @@
         <v>3.27904156168302</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>300</v>
       </c>
@@ -8181,7 +8062,7 @@
         <v>3.5001907658543199</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>302</v>
       </c>
@@ -8204,7 +8085,7 @@
         <v>4.4265583033185996</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>304</v>
       </c>
@@ -8227,7 +8108,7 @@
         <v>5.4829064499999998</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>306</v>
       </c>
@@ -8250,7 +8131,7 @@
         <v>6.0378415499999996</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>308</v>
       </c>
@@ -8273,7 +8154,7 @@
         <v>6.0881461999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>310</v>
       </c>
@@ -8296,7 +8177,7 @@
         <v>9.6187152853345594</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>312</v>
       </c>
@@ -8319,7 +8200,7 @@
         <v>9.6665879299999897</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>314</v>
       </c>
@@ -8342,7 +8223,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -8365,7 +8246,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>320</v>
       </c>
@@ -8388,7 +8269,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>322</v>
       </c>
@@ -8411,7 +8292,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>324</v>
       </c>
@@ -8434,7 +8315,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>326</v>
       </c>
@@ -8457,7 +8338,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>328</v>
       </c>
@@ -8480,7 +8361,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>330</v>
       </c>
@@ -8503,7 +8384,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>333</v>
       </c>
@@ -8526,7 +8407,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>335</v>
       </c>
@@ -8549,7 +8430,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>337</v>
       </c>
@@ -8572,7 +8453,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>339</v>
       </c>
@@ -8595,7 +8476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -8618,7 +8499,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>343</v>
       </c>
@@ -8641,7 +8522,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>345</v>
       </c>
@@ -8664,7 +8545,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>347</v>
       </c>
@@ -8687,7 +8568,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>349</v>
       </c>
@@ -8710,7 +8591,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>351</v>
       </c>
@@ -8733,7 +8614,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>353</v>
       </c>
@@ -8756,7 +8637,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -8779,7 +8660,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>357</v>
       </c>
@@ -8802,7 +8683,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>359</v>
       </c>
@@ -8825,7 +8706,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>361</v>
       </c>
@@ -8848,7 +8729,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -8871,7 +8752,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>365</v>
       </c>
@@ -8894,7 +8775,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>367</v>
       </c>
@@ -8917,7 +8798,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>369</v>
       </c>
@@ -8940,7 +8821,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>371</v>
       </c>
@@ -8963,7 +8844,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>373</v>
       </c>
@@ -8986,7 +8867,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -9009,7 +8890,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>377</v>
       </c>
@@ -9032,7 +8913,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>379</v>
       </c>
@@ -9055,7 +8936,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>381</v>
       </c>
@@ -9078,7 +8959,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>384</v>
       </c>
@@ -9101,7 +8982,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -9124,7 +9005,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>388</v>
       </c>
@@ -9147,7 +9028,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>390</v>
       </c>
@@ -9170,7 +9051,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>392</v>
       </c>
@@ -9193,7 +9074,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>394</v>
       </c>
@@ -9216,7 +9097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>396</v>
       </c>
@@ -9239,7 +9120,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>398</v>
       </c>
@@ -9262,7 +9143,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>400</v>
       </c>
@@ -9285,7 +9166,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>402</v>
       </c>
@@ -9308,7 +9189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>404</v>
       </c>
@@ -9331,7 +9212,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>406</v>
       </c>
@@ -9354,7 +9235,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>408</v>
       </c>
@@ -9377,7 +9258,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>410</v>
       </c>
@@ -9400,7 +9281,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>412</v>
       </c>
@@ -9423,7 +9304,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>414</v>
       </c>
@@ -9446,7 +9327,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>416</v>
       </c>
@@ -9469,7 +9350,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>418</v>
       </c>
@@ -9492,7 +9373,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>420</v>
       </c>
@@ -9515,7 +9396,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>422</v>
       </c>
@@ -9538,7 +9419,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>424</v>
       </c>
@@ -9561,7 +9442,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>426</v>
       </c>
@@ -9584,7 +9465,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>428</v>
       </c>
@@ -9607,7 +9488,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>430</v>
       </c>
@@ -9630,7 +9511,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>432</v>
       </c>
@@ -9653,7 +9534,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>434</v>
       </c>
@@ -9676,7 +9557,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>436</v>
       </c>
@@ -9699,7 +9580,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>438</v>
       </c>
@@ -9722,7 +9603,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>440</v>
       </c>
@@ -9745,7 +9626,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>442</v>
       </c>
@@ -9768,7 +9649,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>444</v>
       </c>
@@ -9791,7 +9672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>446</v>
       </c>
@@ -9814,7 +9695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>448</v>
       </c>
@@ -9837,7 +9718,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>450</v>
       </c>
@@ -9860,7 +9741,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>452</v>
       </c>
@@ -9883,7 +9764,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>454</v>
       </c>
@@ -9906,7 +9787,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>456</v>
       </c>
@@ -9929,7 +9810,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>458</v>
       </c>
@@ -9952,7 +9833,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>460</v>
       </c>
@@ -9975,7 +9856,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>462</v>
       </c>
@@ -9998,7 +9879,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>464</v>
       </c>
@@ -10021,7 +9902,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>466</v>
       </c>
@@ -10044,7 +9925,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>468</v>
       </c>
@@ -10067,7 +9948,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>470</v>
       </c>
@@ -10090,7 +9971,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>472</v>
       </c>
@@ -10113,7 +9994,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>474</v>
       </c>
@@ -10136,7 +10017,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>476</v>
       </c>
@@ -10159,7 +10040,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>478</v>
       </c>
@@ -10182,7 +10063,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>480</v>
       </c>
@@ -10205,7 +10086,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>482</v>
       </c>
@@ -10228,7 +10109,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>484</v>
       </c>
@@ -10251,7 +10132,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>486</v>
       </c>
@@ -10274,7 +10155,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>488</v>
       </c>
@@ -10297,7 +10178,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>490</v>
       </c>
@@ -10320,7 +10201,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>492</v>
       </c>
@@ -10343,7 +10224,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>494</v>
       </c>
@@ -10366,7 +10247,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>496</v>
       </c>
@@ -10389,7 +10270,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>498</v>
       </c>
@@ -10412,7 +10293,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>500</v>
       </c>
@@ -10435,7 +10316,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>502</v>
       </c>
@@ -10458,7 +10339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>504</v>
       </c>
@@ -10481,7 +10362,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>506</v>
       </c>
@@ -10504,7 +10385,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>508</v>
       </c>
@@ -10527,7 +10408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>510</v>
       </c>
@@ -10550,7 +10431,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>512</v>
       </c>
@@ -10573,7 +10454,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>514</v>
       </c>
@@ -10596,7 +10477,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>516</v>
       </c>
@@ -10619,7 +10500,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>518</v>
       </c>
@@ -10642,7 +10523,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>520</v>
       </c>
@@ -10665,7 +10546,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>522</v>
       </c>
@@ -10688,7 +10569,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>524</v>
       </c>
@@ -10711,7 +10592,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>526</v>
       </c>
@@ -10734,7 +10615,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>528</v>
       </c>
@@ -10757,7 +10638,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>530</v>
       </c>
@@ -10780,7 +10661,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>532</v>
       </c>
@@ -10803,7 +10684,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>534</v>
       </c>
@@ -10826,7 +10707,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>536</v>
       </c>
@@ -10849,7 +10730,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>538</v>
       </c>
@@ -10872,7 +10753,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>540</v>
       </c>
@@ -10895,7 +10776,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>542</v>
       </c>
@@ -10918,7 +10799,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>544</v>
       </c>
@@ -10941,7 +10822,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>546</v>
       </c>
@@ -10964,7 +10845,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>548</v>
       </c>
@@ -10987,7 +10868,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>550</v>
       </c>
@@ -11010,7 +10891,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>552</v>
       </c>
@@ -11033,7 +10914,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>554</v>
       </c>
@@ -11056,7 +10937,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>556</v>
       </c>
@@ -11079,7 +10960,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>558</v>
       </c>
@@ -11102,7 +10983,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>560</v>
       </c>
@@ -11125,7 +11006,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>562</v>
       </c>
@@ -11148,7 +11029,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>564</v>
       </c>
@@ -11171,7 +11052,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>566</v>
       </c>
@@ -11194,7 +11075,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>568</v>
       </c>
@@ -11217,7 +11098,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>570</v>
       </c>
@@ -11240,7 +11121,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>572</v>
       </c>
@@ -11263,7 +11144,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>574</v>
       </c>
@@ -11286,7 +11167,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>576</v>
       </c>
@@ -11309,7 +11190,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>578</v>
       </c>
@@ -11332,7 +11213,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>580</v>
       </c>
@@ -11355,7 +11236,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>582</v>
       </c>
@@ -11378,7 +11259,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>584</v>
       </c>
@@ -11401,7 +11282,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>586</v>
       </c>
@@ -11424,7 +11305,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>588</v>
       </c>
@@ -11447,7 +11328,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>590</v>
       </c>
@@ -11470,7 +11351,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>592</v>
       </c>
@@ -11493,7 +11374,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>594</v>
       </c>
@@ -11516,7 +11397,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>596</v>
       </c>
@@ -11539,7 +11420,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>598</v>
       </c>
@@ -11562,7 +11443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>600</v>
       </c>
@@ -11585,7 +11466,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>602</v>
       </c>
@@ -11608,7 +11489,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>604</v>
       </c>
@@ -11631,7 +11512,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>606</v>
       </c>
@@ -11654,7 +11535,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>608</v>
       </c>
@@ -11677,7 +11558,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>610</v>
       </c>
@@ -11700,7 +11581,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>612</v>
       </c>
@@ -11723,7 +11604,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>614</v>
       </c>
@@ -11746,7 +11627,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>616</v>
       </c>
@@ -11769,7 +11650,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>619</v>
       </c>
@@ -11792,7 +11673,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>621</v>
       </c>
@@ -11815,7 +11696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>623</v>
       </c>
@@ -11838,7 +11719,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>625</v>
       </c>
@@ -11861,7 +11742,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>627</v>
       </c>
@@ -11884,7 +11765,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>629</v>
       </c>
@@ -11907,7 +11788,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>631</v>
       </c>
@@ -11930,7 +11811,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>633</v>
       </c>
@@ -11953,7 +11834,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>635</v>
       </c>
@@ -11976,7 +11857,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>637</v>
       </c>
@@ -11999,7 +11880,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>639</v>
       </c>
@@ -12022,7 +11903,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>641</v>
       </c>
@@ -12045,7 +11926,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>643</v>
       </c>
@@ -12068,7 +11949,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>645</v>
       </c>
@@ -12091,7 +11972,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>647</v>
       </c>
@@ -12114,7 +11995,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>649</v>
       </c>
@@ -12137,7 +12018,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>651</v>
       </c>
@@ -12160,7 +12041,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>653</v>
       </c>
@@ -12183,7 +12064,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>655</v>
       </c>
@@ -12206,7 +12087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>657</v>
       </c>
@@ -12229,7 +12110,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>659</v>
       </c>
@@ -12252,7 +12133,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>661</v>
       </c>
@@ -12275,7 +12156,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>663</v>
       </c>
@@ -12298,7 +12179,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>665</v>
       </c>
@@ -12321,7 +12202,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>667</v>
       </c>
@@ -12344,7 +12225,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>669</v>
       </c>
@@ -12367,7 +12248,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>671</v>
       </c>
@@ -12390,7 +12271,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>673</v>
       </c>
@@ -12413,7 +12294,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>675</v>
       </c>
@@ -12436,7 +12317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>677</v>
       </c>
@@ -12459,7 +12340,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>679</v>
       </c>
@@ -12482,7 +12363,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>681</v>
       </c>
@@ -12505,7 +12386,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>683</v>
       </c>
@@ -12528,7 +12409,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>685</v>
       </c>
@@ -12551,7 +12432,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>687</v>
       </c>
@@ -12574,7 +12455,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -12597,7 +12478,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>691</v>
       </c>
@@ -12620,7 +12501,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -12643,7 +12524,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>695</v>
       </c>
@@ -12666,7 +12547,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>697</v>
       </c>
@@ -12689,7 +12570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>699</v>
       </c>
@@ -12712,7 +12593,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>701</v>
       </c>
@@ -12735,7 +12616,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>703</v>
       </c>
@@ -12758,7 +12639,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>705</v>
       </c>
@@ -12781,7 +12662,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>707</v>
       </c>
@@ -12804,7 +12685,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>709</v>
       </c>
@@ -12827,7 +12708,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>711</v>
       </c>
@@ -12850,7 +12731,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>713</v>
       </c>
@@ -12873,7 +12754,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>715</v>
       </c>
@@ -12896,7 +12777,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>717</v>
       </c>
@@ -12919,7 +12800,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>719</v>
       </c>
@@ -12942,7 +12823,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>721</v>
       </c>
@@ -12965,7 +12846,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>723</v>
       </c>
@@ -12988,7 +12869,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>725</v>
       </c>
@@ -13011,7 +12892,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>727</v>
       </c>
@@ -13034,7 +12915,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>729</v>
       </c>
@@ -13057,7 +12938,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>731</v>
       </c>
@@ -13080,7 +12961,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>733</v>
       </c>
@@ -13103,7 +12984,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>735</v>
       </c>
@@ -13126,7 +13007,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>737</v>
       </c>
@@ -13149,7 +13030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>739</v>
       </c>
@@ -13172,7 +13053,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>741</v>
       </c>
@@ -13195,7 +13076,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>743</v>
       </c>
@@ -13218,7 +13099,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>745</v>
       </c>
@@ -13241,7 +13122,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>747</v>
       </c>
@@ -13264,7 +13145,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>749</v>
       </c>
@@ -13287,7 +13168,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>751</v>
       </c>
@@ -13310,7 +13191,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>753</v>
       </c>
@@ -13333,7 +13214,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>755</v>
       </c>
@@ -13356,7 +13237,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>757</v>
       </c>
@@ -13379,7 +13260,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>759</v>
       </c>
@@ -13402,7 +13283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>761</v>
       </c>
@@ -13425,7 +13306,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>763</v>
       </c>
@@ -13448,7 +13329,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>765</v>
       </c>
@@ -13471,7 +13352,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>767</v>
       </c>
@@ -13494,7 +13375,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>769</v>
       </c>
@@ -13517,7 +13398,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>771</v>
       </c>
@@ -13540,7 +13421,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>773</v>
       </c>
@@ -13563,7 +13444,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>775</v>
       </c>
@@ -13586,7 +13467,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>777</v>
       </c>
@@ -13609,7 +13490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>779</v>
       </c>
@@ -13632,7 +13513,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>781</v>
       </c>
@@ -13655,7 +13536,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>783</v>
       </c>
@@ -13678,7 +13559,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>785</v>
       </c>
@@ -13701,7 +13582,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>787</v>
       </c>
@@ -13724,7 +13605,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>789</v>
       </c>
@@ -13747,7 +13628,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>791</v>
       </c>
@@ -13770,7 +13651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>793</v>
       </c>
@@ -13793,7 +13674,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>795</v>
       </c>
@@ -13816,7 +13697,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>797</v>
       </c>
@@ -13839,7 +13720,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>799</v>
       </c>
@@ -13862,7 +13743,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>801</v>
       </c>
@@ -13885,7 +13766,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>803</v>
       </c>
@@ -13908,7 +13789,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>805</v>
       </c>
@@ -13931,7 +13812,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>807</v>
       </c>
@@ -13954,7 +13835,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>809</v>
       </c>
@@ -13977,7 +13858,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>811</v>
       </c>
@@ -14000,7 +13881,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>813</v>
       </c>
@@ -14023,7 +13904,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>815</v>
       </c>
@@ -14046,7 +13927,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>817</v>
       </c>
@@ -14069,7 +13950,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>819</v>
       </c>
@@ -14092,7 +13973,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>821</v>
       </c>
@@ -14115,7 +13996,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>823</v>
       </c>
@@ -14138,7 +14019,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>825</v>
       </c>
@@ -14161,7 +14042,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>827</v>
       </c>
@@ -14184,7 +14065,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>829</v>
       </c>
@@ -14207,7 +14088,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>831</v>
       </c>
@@ -14230,7 +14111,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>833</v>
       </c>
@@ -14253,7 +14134,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>835</v>
       </c>
@@ -14276,7 +14157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>837</v>
       </c>
@@ -14299,7 +14180,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>839</v>
       </c>
@@ -14322,7 +14203,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>841</v>
       </c>
@@ -14345,7 +14226,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>843</v>
       </c>
@@ -14368,7 +14249,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>845</v>
       </c>
@@ -14391,7 +14272,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>847</v>
       </c>
@@ -14414,7 +14295,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>849</v>
       </c>
@@ -14437,7 +14318,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>851</v>
       </c>
@@ -14460,7 +14341,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>853</v>
       </c>
@@ -14483,7 +14364,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>855</v>
       </c>
@@ -14506,7 +14387,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>857</v>
       </c>
@@ -14529,7 +14410,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>859</v>
       </c>
@@ -14552,7 +14433,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>861</v>
       </c>
@@ -14575,7 +14456,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>863</v>
       </c>
@@ -14598,7 +14479,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>865</v>
       </c>
@@ -14621,7 +14502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>867</v>
       </c>
@@ -14644,7 +14525,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>869</v>
       </c>
@@ -14667,7 +14548,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>871</v>
       </c>
@@ -14690,7 +14571,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>873</v>
       </c>
@@ -14713,7 +14594,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>875</v>
       </c>
@@ -14736,7 +14617,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>877</v>
       </c>
@@ -14759,7 +14640,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>879</v>
       </c>
@@ -14782,7 +14663,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>881</v>
       </c>
@@ -14805,7 +14686,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>883</v>
       </c>
@@ -14828,7 +14709,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>885</v>
       </c>
@@ -14851,7 +14732,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>887</v>
       </c>
@@ -14874,7 +14755,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>889</v>
       </c>
@@ -14897,7 +14778,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>891</v>
       </c>
@@ -14920,7 +14801,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>893</v>
       </c>
@@ -14943,7 +14824,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>895</v>
       </c>
@@ -14966,7 +14847,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>897</v>
       </c>
@@ -14989,7 +14870,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>899</v>
       </c>
@@ -15012,7 +14893,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>901</v>
       </c>
@@ -15035,7 +14916,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>903</v>
       </c>
@@ -15058,7 +14939,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>905</v>
       </c>
@@ -15081,7 +14962,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>907</v>
       </c>
@@ -15104,7 +14985,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>909</v>
       </c>
@@ -15127,7 +15008,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>911</v>
       </c>
@@ -15150,7 +15031,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>913</v>
       </c>
@@ -15173,7 +15054,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>915</v>
       </c>
@@ -15196,7 +15077,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>917</v>
       </c>
@@ -15219,7 +15100,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>919</v>
       </c>
@@ -15242,7 +15123,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>921</v>
       </c>
@@ -15265,7 +15146,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>923</v>
       </c>
@@ -15288,7 +15169,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>925</v>
       </c>
@@ -15311,7 +15192,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>927</v>
       </c>
@@ -15334,7 +15215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>929</v>
       </c>
@@ -15357,7 +15238,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>931</v>
       </c>
@@ -15380,7 +15261,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>933</v>
       </c>
@@ -15403,7 +15284,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>935</v>
       </c>
@@ -15426,7 +15307,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>937</v>
       </c>
@@ -15449,7 +15330,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>939</v>
       </c>
@@ -15472,7 +15353,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>941</v>
       </c>
@@ -15495,7 +15376,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>943</v>
       </c>
@@ -15518,7 +15399,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>945</v>
       </c>
@@ -15541,7 +15422,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>947</v>
       </c>
@@ -15564,7 +15445,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>949</v>
       </c>
@@ -15587,7 +15468,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>951</v>
       </c>
@@ -15610,7 +15491,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>953</v>
       </c>
@@ -15633,7 +15514,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>955</v>
       </c>
@@ -15656,7 +15537,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>957</v>
       </c>
@@ -15679,7 +15560,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>959</v>
       </c>
@@ -15702,7 +15583,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>961</v>
       </c>
@@ -15725,7 +15606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>963</v>
       </c>
@@ -15748,7 +15629,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>965</v>
       </c>
@@ -15771,7 +15652,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>967</v>
       </c>
@@ -15794,7 +15675,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>969</v>
       </c>
@@ -15817,7 +15698,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>971</v>
       </c>
@@ -15840,7 +15721,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>973</v>
       </c>
@@ -15863,7 +15744,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>975</v>
       </c>
@@ -15886,7 +15767,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>977</v>
       </c>
@@ -15909,7 +15790,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>979</v>
       </c>
@@ -15932,7 +15813,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>981</v>
       </c>
@@ -15955,7 +15836,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>983</v>
       </c>
@@ -15978,7 +15859,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>985</v>
       </c>
@@ -16001,7 +15882,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>987</v>
       </c>
@@ -16024,7 +15905,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>989</v>
       </c>
@@ -16047,7 +15928,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>991</v>
       </c>
@@ -16070,7 +15951,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>993</v>
       </c>
@@ -16093,7 +15974,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>995</v>
       </c>
@@ -16116,7 +15997,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>997</v>
       </c>
@@ -16139,7 +16020,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>999</v>
       </c>
@@ -16162,7 +16043,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>1001</v>
       </c>
@@ -16185,7 +16066,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>1003</v>
       </c>
@@ -16208,7 +16089,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>1005</v>
       </c>
@@ -16231,7 +16112,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>1007</v>
       </c>
@@ -16254,7 +16135,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>1009</v>
       </c>
@@ -16277,7 +16158,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>1011</v>
       </c>
@@ -16300,7 +16181,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>1013</v>
       </c>
@@ -16323,7 +16204,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>1015</v>
       </c>
@@ -16346,7 +16227,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>1017</v>
       </c>
@@ -16369,7 +16250,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>1019</v>
       </c>
@@ -16392,7 +16273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>1021</v>
       </c>
@@ -16415,7 +16296,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>1023</v>
       </c>
@@ -16438,7 +16319,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>1025</v>
       </c>
@@ -16461,7 +16342,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>1027</v>
       </c>
@@ -16484,7 +16365,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>1029</v>
       </c>
@@ -16507,7 +16388,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>1031</v>
       </c>
@@ -16530,7 +16411,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>1033</v>
       </c>
@@ -16553,7 +16434,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>1035</v>
       </c>
@@ -16576,7 +16457,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>1037</v>
       </c>
@@ -16599,7 +16480,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>1039</v>
       </c>
@@ -16622,7 +16503,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>1041</v>
       </c>
@@ -16645,7 +16526,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>1043</v>
       </c>
@@ -16668,7 +16549,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>1045</v>
       </c>
@@ -16691,7 +16572,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>1047</v>
       </c>
@@ -16714,7 +16595,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>1049</v>
       </c>
@@ -16737,7 +16618,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>1051</v>
       </c>
@@ -16760,7 +16641,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>1053</v>
       </c>
@@ -16783,7 +16664,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>1055</v>
       </c>
@@ -16806,7 +16687,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>1057</v>
       </c>
@@ -16829,7 +16710,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>1059</v>
       </c>
@@ -16852,7 +16733,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>1061</v>
       </c>
@@ -16875,7 +16756,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>1063</v>
       </c>
@@ -16898,7 +16779,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>1065</v>
       </c>
@@ -16921,7 +16802,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>1067</v>
       </c>
@@ -16944,7 +16825,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>1069</v>
       </c>
@@ -16967,7 +16848,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>1071</v>
       </c>
@@ -16990,7 +16871,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>1073</v>
       </c>
@@ -17013,7 +16894,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>1075</v>
       </c>
@@ -17036,7 +16917,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>1077</v>
       </c>
@@ -17059,7 +16940,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>1079</v>
       </c>
@@ -17082,7 +16963,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>1081</v>
       </c>
@@ -17105,7 +16986,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>1083</v>
       </c>
@@ -17128,7 +17009,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>1085</v>
       </c>
@@ -17151,7 +17032,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>1087</v>
       </c>
@@ -17174,7 +17055,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>1089</v>
       </c>
@@ -17197,7 +17078,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>1091</v>
       </c>
@@ -17220,7 +17101,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>1093</v>
       </c>
@@ -17243,7 +17124,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>1095</v>
       </c>
@@ -17266,7 +17147,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>1097</v>
       </c>
@@ -17289,7 +17170,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>1099</v>
       </c>
@@ -17312,7 +17193,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>1101</v>
       </c>
@@ -17335,7 +17216,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>1103</v>
       </c>
@@ -17358,7 +17239,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>1105</v>
       </c>
@@ -17381,7 +17262,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>1107</v>
       </c>
@@ -17404,7 +17285,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>1109</v>
       </c>
@@ -17427,7 +17308,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>1111</v>
       </c>
@@ -17450,7 +17331,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>1113</v>
       </c>
@@ -17473,7 +17354,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>1115</v>
       </c>
@@ -17496,7 +17377,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>1117</v>
       </c>
@@ -17519,7 +17400,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>1119</v>
       </c>
@@ -17542,7 +17423,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>1121</v>
       </c>
@@ -17565,7 +17446,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>1123</v>
       </c>
@@ -17588,7 +17469,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>1125</v>
       </c>
@@ -17611,7 +17492,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>1127</v>
       </c>
@@ -17634,7 +17515,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>1129</v>
       </c>
@@ -17657,7 +17538,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>1131</v>
       </c>
@@ -17680,7 +17561,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>1133</v>
       </c>
@@ -17703,7 +17584,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>1135</v>
       </c>
@@ -17726,7 +17607,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>1137</v>
       </c>
@@ -17749,7 +17630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>1139</v>
       </c>
@@ -17772,7 +17653,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>1141</v>
       </c>
@@ -17795,7 +17676,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>1143</v>
       </c>
@@ -17818,7 +17699,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>1145</v>
       </c>
@@ -17841,7 +17722,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>1147</v>
       </c>
@@ -17864,7 +17745,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>1149</v>
       </c>
@@ -17887,7 +17768,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>1151</v>
       </c>
@@ -17910,7 +17791,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>1153</v>
       </c>
@@ -17933,7 +17814,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>1155</v>
       </c>
@@ -17956,7 +17837,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>1157</v>
       </c>
@@ -17979,7 +17860,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>1159</v>
       </c>
@@ -18002,7 +17883,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>1161</v>
       </c>
@@ -18025,7 +17906,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>1163</v>
       </c>
@@ -18048,7 +17929,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>1165</v>
       </c>
@@ -18071,7 +17952,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>1167</v>
       </c>
@@ -18094,7 +17975,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>1169</v>
       </c>
@@ -18117,7 +17998,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>1171</v>
       </c>
@@ -18140,7 +18021,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>1173</v>
       </c>
@@ -18163,7 +18044,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>1175</v>
       </c>
@@ -18186,7 +18067,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>1177</v>
       </c>
@@ -18209,7 +18090,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>1179</v>
       </c>
@@ -18232,7 +18113,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>1181</v>
       </c>
@@ -18255,7 +18136,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>1183</v>
       </c>
@@ -18278,7 +18159,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>1185</v>
       </c>
@@ -18301,7 +18182,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>1187</v>
       </c>
@@ -18324,7 +18205,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>1189</v>
       </c>
@@ -18347,7 +18228,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>1191</v>
       </c>
@@ -18370,7 +18251,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>1193</v>
       </c>
@@ -18393,7 +18274,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>1195</v>
       </c>
@@ -18416,7 +18297,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>1197</v>
       </c>
@@ -18439,7 +18320,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>1199</v>
       </c>
@@ -18462,7 +18343,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>1201</v>
       </c>
@@ -18485,7 +18366,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>1203</v>
       </c>
@@ -18508,7 +18389,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>1205</v>
       </c>
@@ -18531,7 +18412,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>1207</v>
       </c>
@@ -18554,7 +18435,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>1209</v>
       </c>
@@ -18577,7 +18458,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>1211</v>
       </c>
@@ -18600,7 +18481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>1213</v>
       </c>
@@ -18623,7 +18504,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>1215</v>
       </c>
@@ -18646,7 +18527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>1217</v>
       </c>
@@ -18669,7 +18550,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>1219</v>
       </c>
@@ -18692,7 +18573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>1221</v>
       </c>
@@ -18715,7 +18596,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>1223</v>
       </c>
@@ -18738,7 +18619,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>1225</v>
       </c>
@@ -18761,7 +18642,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>1227</v>
       </c>
@@ -18784,7 +18665,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>1229</v>
       </c>
@@ -18807,7 +18688,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1231</v>
       </c>
@@ -18830,7 +18711,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1233</v>
       </c>
@@ -18853,7 +18734,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1235</v>
       </c>
@@ -18876,7 +18757,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1237</v>
       </c>
@@ -18899,7 +18780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1239</v>
       </c>
@@ -18922,7 +18803,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1241</v>
       </c>
@@ -18945,7 +18826,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1243</v>
       </c>
@@ -18968,7 +18849,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1245</v>
       </c>
@@ -18991,7 +18872,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1247</v>
       </c>
@@ -19014,7 +18895,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1249</v>
       </c>
@@ -19037,7 +18918,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1251</v>
       </c>
@@ -19060,7 +18941,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1253</v>
       </c>
@@ -19083,7 +18964,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1255</v>
       </c>
@@ -19106,7 +18987,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1257</v>
       </c>
@@ -19129,7 +19010,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1259</v>
       </c>
@@ -19152,7 +19033,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1261</v>
       </c>
@@ -19175,7 +19056,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1263</v>
       </c>
@@ -19198,7 +19079,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1265</v>
       </c>
@@ -19221,7 +19102,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1267</v>
       </c>
@@ -19244,7 +19125,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1270</v>
       </c>
@@ -19267,7 +19148,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1272</v>
       </c>
@@ -19290,7 +19171,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1274</v>
       </c>
@@ -19313,7 +19194,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1276</v>
       </c>
@@ -19336,7 +19217,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1278</v>
       </c>
@@ -19359,7 +19240,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1280</v>
       </c>
@@ -19379,420 +19260,6 @@
         <v>317</v>
       </c>
       <c r="G633" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A634" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D634" t="s">
-        <v>317</v>
-      </c>
-      <c r="E634" t="s">
-        <v>10</v>
-      </c>
-      <c r="F634">
-        <v>51.943312162290269</v>
-      </c>
-      <c r="G634" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A635" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D635" t="s">
-        <v>317</v>
-      </c>
-      <c r="E635" t="s">
-        <v>10</v>
-      </c>
-      <c r="F635">
-        <v>49.644751325928148</v>
-      </c>
-      <c r="G635" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A636" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D636" t="s">
-        <v>317</v>
-      </c>
-      <c r="E636" t="s">
-        <v>10</v>
-      </c>
-      <c r="F636">
-        <v>30.514408833827094</v>
-      </c>
-      <c r="G636" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A637" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D637" t="s">
-        <v>317</v>
-      </c>
-      <c r="E637" t="s">
-        <v>10</v>
-      </c>
-      <c r="F637">
-        <v>25.94338110352345</v>
-      </c>
-      <c r="G637" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A638" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D638" t="s">
-        <v>317</v>
-      </c>
-      <c r="E638" t="s">
-        <v>10</v>
-      </c>
-      <c r="F638">
-        <v>55.19075701047057</v>
-      </c>
-      <c r="G638" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A639" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D639" t="s">
-        <v>317</v>
-      </c>
-      <c r="E639" t="s">
-        <v>10</v>
-      </c>
-      <c r="F639">
-        <v>47.974255912016375</v>
-      </c>
-      <c r="G639" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A640" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D640" t="s">
-        <v>317</v>
-      </c>
-      <c r="E640" t="s">
-        <v>10</v>
-      </c>
-      <c r="F640">
-        <v>41.442750944806676</v>
-      </c>
-      <c r="G640" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A641" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D641" t="s">
-        <v>317</v>
-      </c>
-      <c r="E641" t="s">
-        <v>10</v>
-      </c>
-      <c r="F641">
-        <v>21.735946691400816</v>
-      </c>
-      <c r="G641" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A642" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D642" t="s">
-        <v>317</v>
-      </c>
-      <c r="E642" t="s">
-        <v>10</v>
-      </c>
-      <c r="F642">
-        <v>53.092080803073493</v>
-      </c>
-      <c r="G642" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A643" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D643" t="s">
-        <v>317</v>
-      </c>
-      <c r="E643" t="s">
-        <v>10</v>
-      </c>
-      <c r="F643">
-        <v>39.610006837848672</v>
-      </c>
-      <c r="G643" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A644" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D644" t="s">
-        <v>317</v>
-      </c>
-      <c r="E644" t="s">
-        <v>10</v>
-      </c>
-      <c r="F644">
-        <v>37.057117890054023</v>
-      </c>
-      <c r="G644" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A645" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D645" t="s">
-        <v>317</v>
-      </c>
-      <c r="E645" t="s">
-        <v>10</v>
-      </c>
-      <c r="F645">
-        <v>62.224456958970229</v>
-      </c>
-      <c r="G645" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A646" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C646" t="s">
-        <v>201</v>
-      </c>
-      <c r="D646" t="s">
-        <v>317</v>
-      </c>
-      <c r="E646" t="s">
-        <v>10</v>
-      </c>
-      <c r="F646">
-        <v>47.640174751567557</v>
-      </c>
-      <c r="G646" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A647" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D647" t="s">
-        <v>317</v>
-      </c>
-      <c r="E647" t="s">
-        <v>10</v>
-      </c>
-      <c r="F647">
-        <v>50.639450784102124</v>
-      </c>
-      <c r="G647" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A648" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C648" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D648" t="s">
-        <v>317</v>
-      </c>
-      <c r="E648" t="s">
-        <v>10</v>
-      </c>
-      <c r="F648">
-        <v>32.756126705939081</v>
-      </c>
-      <c r="G648" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A649" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D649" t="s">
-        <v>317</v>
-      </c>
-      <c r="E649" t="s">
-        <v>10</v>
-      </c>
-      <c r="F649">
-        <v>55.52837805746853</v>
-      </c>
-      <c r="G649" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A650" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D650" t="s">
-        <v>317</v>
-      </c>
-      <c r="E650" t="s">
-        <v>10</v>
-      </c>
-      <c r="F650">
-        <v>52.617154327182888</v>
-      </c>
-      <c r="G650" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A651" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D651" t="s">
-        <v>317</v>
-      </c>
-      <c r="E651" t="s">
-        <v>10</v>
-      </c>
-      <c r="F651">
-        <v>33.152676140762757</v>
-      </c>
-      <c r="G651" t="s">
         <v>317</v>
       </c>
     </row>
